--- a/Connected Office Web Application_User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application_User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntima\OneDrive\Desktop\CMPG323-Projects\CMPG323-Project4-31967000\Connected Office Web Application_User Acceptance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -383,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,7 +728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -990,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1712,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1947,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Connected Office Web Application_User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
+++ b/Connected Office Web Application_User Acceptance Testing/CMPG323 EcoPower Logistics Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Orders" sheetId="3" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +778,9 @@
       <c r="E2">
         <v>5723177115</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -795,6 +798,9 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -812,6 +818,9 @@
       <c r="E4">
         <v>3738283528</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -829,6 +838,9 @@
       <c r="E5">
         <v>6447102299</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -846,6 +858,9 @@
       <c r="E6">
         <v>1878764468</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -863,6 +878,9 @@
       <c r="E7">
         <v>9666552669</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -880,6 +898,9 @@
       <c r="E8">
         <v>2384982848</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -897,6 +918,9 @@
       <c r="E9">
         <v>8945409882</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -914,6 +938,9 @@
       <c r="E10">
         <v>1320602595</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -931,6 +958,9 @@
       <c r="E11">
         <v>7968612324</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -948,6 +978,9 @@
       <c r="E12">
         <v>1578247192</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -965,6 +998,9 @@
       <c r="E13">
         <v>7425817353</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -981,6 +1017,9 @@
       </c>
       <c r="E14">
         <v>5815761997</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -992,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1080,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1058,6 +1100,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1075,6 +1120,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1092,6 +1140,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1109,6 +1160,9 @@
       <c r="E6">
         <v>0.7</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1126,6 +1180,9 @@
       <c r="E7">
         <v>0.2</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1143,6 +1200,9 @@
       <c r="E8">
         <v>0.2</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1160,6 +1220,9 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1177,6 +1240,9 @@
       <c r="E10">
         <v>0.2</v>
       </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1194,6 +1260,9 @@
       <c r="E11">
         <v>0.2</v>
       </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1211,6 +1280,9 @@
       <c r="E12">
         <v>0.2</v>
       </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1228,6 +1300,9 @@
       <c r="E13">
         <v>0.2</v>
       </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1245,6 +1320,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1262,6 +1340,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1279,8 +1360,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6091</v>
       </c>
@@ -1296,8 +1380,11 @@
       <c r="E17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6092</v>
       </c>
@@ -1313,8 +1400,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6093</v>
       </c>
@@ -1330,8 +1420,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6094</v>
       </c>
@@ -1347,8 +1440,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6095</v>
       </c>
@@ -1364,8 +1460,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6096</v>
       </c>
@@ -1381,8 +1480,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6097</v>
       </c>
@@ -1398,8 +1500,11 @@
       <c r="E23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6098</v>
       </c>
@@ -1415,8 +1520,11 @@
       <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6099</v>
       </c>
@@ -1432,8 +1540,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6100</v>
       </c>
@@ -1449,8 +1560,11 @@
       <c r="E26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -1466,8 +1580,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -1483,8 +1600,11 @@
       <c r="E28">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -1500,8 +1620,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -1517,8 +1640,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6288</v>
       </c>
@@ -1534,8 +1660,11 @@
       <c r="E31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6289</v>
       </c>
@@ -1551,8 +1680,11 @@
       <c r="E32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7320</v>
       </c>
@@ -1568,8 +1700,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7321</v>
       </c>
@@ -1585,8 +1720,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7404</v>
       </c>
@@ -1602,8 +1740,11 @@
       <c r="E35">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7405</v>
       </c>
@@ -1619,8 +1760,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7406</v>
       </c>
@@ -1636,8 +1780,11 @@
       <c r="E37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7407</v>
       </c>
@@ -1653,8 +1800,11 @@
       <c r="E38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9132</v>
       </c>
@@ -1670,8 +1820,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9133</v>
       </c>
@@ -1687,8 +1840,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9737</v>
       </c>
@@ -1703,6 +1859,9 @@
       </c>
       <c r="E41">
         <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1874,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,6 +1916,9 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1771,6 +1933,9 @@
       <c r="D3" t="s">
         <v>44</v>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1785,6 +1950,9 @@
       <c r="D4" t="s">
         <v>45</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1799,6 +1967,9 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1813,6 +1984,9 @@
       <c r="D6" t="s">
         <v>47</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1827,6 +2001,9 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1841,6 +2018,9 @@
       <c r="D8" t="s">
         <v>49</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1855,6 +2035,9 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1869,6 +2052,9 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1883,6 +2069,9 @@
       <c r="D11" t="s">
         <v>52</v>
       </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1897,6 +2086,9 @@
       <c r="D12" t="s">
         <v>53</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1911,6 +2103,9 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1925,6 +2120,9 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1938,6 +2136,9 @@
       </c>
       <c r="D15" t="s">
         <v>56</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1949,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,6 +2193,9 @@
       <c r="D2">
         <v>950</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2006,6 +2210,9 @@
       <c r="D3">
         <v>61</v>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2020,6 +2227,9 @@
       <c r="D4">
         <v>281</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2034,6 +2244,9 @@
       <c r="D5">
         <v>502</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2048,6 +2261,9 @@
       <c r="D6">
         <v>621</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2062,6 +2278,9 @@
       <c r="D7">
         <v>765</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2076,6 +2295,9 @@
       <c r="D8">
         <v>709</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2090,6 +2312,9 @@
       <c r="D9">
         <v>485</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2104,6 +2329,9 @@
       <c r="D10">
         <v>158</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2118,6 +2346,9 @@
       <c r="D11">
         <v>485</v>
       </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2132,6 +2363,9 @@
       <c r="D12">
         <v>322</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2146,6 +2380,9 @@
       <c r="D13">
         <v>51</v>
       </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2160,6 +2397,9 @@
       <c r="D14">
         <v>152</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2174,6 +2414,9 @@
       <c r="D15">
         <v>634</v>
       </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2188,8 +2431,11 @@
       <c r="D16">
         <v>299</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001606</v>
       </c>
@@ -2202,8 +2448,11 @@
       <c r="D17">
         <v>466</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001622</v>
       </c>
@@ -2216,8 +2465,11 @@
       <c r="D18">
         <v>971</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10001772</v>
       </c>
@@ -2230,8 +2482,11 @@
       <c r="D19">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001979</v>
       </c>
@@ -2244,8 +2499,11 @@
       <c r="D20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10001998</v>
       </c>
@@ -2258,8 +2516,11 @@
       <c r="D21">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10002012</v>
       </c>
@@ -2272,8 +2533,11 @@
       <c r="D22">
         <v>789</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10002310</v>
       </c>
@@ -2286,8 +2550,11 @@
       <c r="D23">
         <v>924</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10002475</v>
       </c>
@@ -2300,8 +2567,11 @@
       <c r="D24">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10002563</v>
       </c>
@@ -2314,8 +2584,11 @@
       <c r="D25">
         <v>832</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10002647</v>
       </c>
@@ -2328,8 +2601,11 @@
       <c r="D26">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10002713</v>
       </c>
@@ -2342,8 +2618,11 @@
       <c r="D27">
         <v>781</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10002885</v>
       </c>
@@ -2356,8 +2635,11 @@
       <c r="D28">
         <v>977</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10002968</v>
       </c>
@@ -2370,8 +2652,11 @@
       <c r="D29">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10003012</v>
       </c>
@@ -2384,8 +2669,11 @@
       <c r="D30">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10003061</v>
       </c>
@@ -2398,8 +2686,11 @@
       <c r="D31">
         <v>433</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10003072</v>
       </c>
@@ -2412,8 +2703,11 @@
       <c r="D32">
         <v>495</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10003623</v>
       </c>
@@ -2426,8 +2720,11 @@
       <c r="D33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10003715</v>
       </c>
@@ -2440,8 +2737,11 @@
       <c r="D34">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10003833</v>
       </c>
@@ -2454,8 +2754,11 @@
       <c r="D35">
         <v>810</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10003846</v>
       </c>
@@ -2468,8 +2771,11 @@
       <c r="D36">
         <v>637</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10004015</v>
       </c>
@@ -2482,8 +2788,11 @@
       <c r="D37">
         <v>804</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10004086</v>
       </c>
@@ -2496,8 +2805,11 @@
       <c r="D38">
         <v>933</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10004495</v>
       </c>
@@ -2510,8 +2822,11 @@
       <c r="D39">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10004667</v>
       </c>
@@ -2523,6 +2838,9 @@
       </c>
       <c r="D40">
         <v>557</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
